--- a/biology/Origine et évolution du vivant/Plumatella_chulabhornae/Plumatella_chulabhornae.xlsx
+++ b/biology/Origine et évolution du vivant/Plumatella_chulabhornae/Plumatella_chulabhornae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plumatella chulabhornaee est une espèce de bryozoaires d'eau douce de la famille des Plumatellidae.
-Cette espèce a été décrite par Timothy S. Wood (d) et son équipe en 2006 [1] à partir d'un holotype collecté en 2005 [2] dans un étang piscicole de l'université de Kasetsart à Bangkok en Thaïlande. Cet holotype est déposé au musée de zoologie de l'université Chulalongkorn.
+Cette espèce a été décrite par Timothy S. Wood (d) et son équipe en 2006  à partir d'un holotype collecté en 2005  dans un étang piscicole de l'université de Kasetsart à Bangkok en Thaïlande. Cet holotype est déposé au musée de zoologie de l'université Chulalongkorn.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Son nom de genre (Plumatella) provient du fait que, vu de près, ses polypes donnent à une colonie dense un aspect « plumeux » ;
-Son nom d'espèce est « chulabhornae», qui fait référence au nom de la Princesse Chulabhorn, « partisane infatigable et efficace des projets scientifiques en Thaïlande » selon Wood &amp; al.[3].</t>
+Son nom d'espèce est « chulabhornae», qui fait référence au nom de la Princesse Chulabhorn, « partisane infatigable et efficace des projets scientifiques en Thaïlande » selon Wood &amp; al..</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Description Identification  taxonomiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce forme des colonies en se développant de manière dendritique en produisant des « branches » plus ou moins longues selon la densité de zoïdes. Dans une colonie, les branches adhèrent en plusieurs points (à un substrat dur ou parfois souple tel qu'une tige ou feuille).
 La paroi du corps de l'animal est presque partout translucide et sans raphé. L’espèce produit des flottoblastes le plus souvent « latéralement asymétrique[s], avec une valve ventrale fortement convexe et une soupape dorsale presque plate » Chaque statoblaste est recouvert d'un couvercle dont la forme est bien définie (floatoblast fenestrae).
